--- a/similarities/split_global/harmonic_similarity_timestamps_358.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_358.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['A', 'D', 'A', 'E', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['A', 'D/5', 'A', 'E/4', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.300000', '0:00:19.020000')]</t>
+          <t>('0:00:01.829138', '0:00:20.776621')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:00:17.913000', '0:00:28.337000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=13.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Ab'], ['Bb', 'Eb', 'Bb', 'Eb'], ['Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'E'], ['F#', 'B', 'F#', 'B'], ['B', 'F#', 'B', 'F#']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.359000', '0:00:15.006000'), ('0:00:07.702000', '0:00:13.688000'), ('0:00:18.932000', '0:00:23.992000')]</t>
+          <t>('0:00:16.540000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:45.875873'), ('0:02:32.583174', '0:02:37.900544'), ('0:02:31.259637', '0:02:36.565396')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=152.583174', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.240000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:7', 'G/5', 'G:min/5', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000'), ('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:00:03.300000', '0:00:05.850000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:23.505328', '0:01:33.397029')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>schubert-winterreise_188</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000'), ('0:00:09.260000', '0:00:13.900000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:01:04.120000', '0:01:11.780000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=64.12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['A:min7', 'D:min', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['Bb:maj6', 'C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+          <t>('0:00:30.988000', '0:00:37.053000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:00:25.020000', '0:00:31.880000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=30.988</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=25.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['E:7', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:16.680000')]</t>
+          <t>('0:00:03.509000', '0:00:18.764000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+          <t>('0:00:07.840000', '0:00:11.160000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=3.509</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=7.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:08.820000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_263</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['G#:maj', 'C#:maj', 'F#:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E', 'A', 'D:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:00:13.120000', '0:00:16.600000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14.600000')]</t>
+          <t>('0:01:03.779977', '0:01:15.482834')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=13.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000'), ('0:00:38.060000', '0:00:41.080000')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:09.940000'), ('0:00:36.140000', '0:00:42.720000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=38.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=36.14']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:25.850181', '0:00:31.898979')]</t>
+          <t>('0:01:17.720000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=25.850181']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E:min', 'F#']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:min/E', 'B:maj/D#']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:33.686916', '0:00:42.951678')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:09.640000', '0:01:12.080000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=33.686916']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=69.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.820000', '0:01:06.820000')]</t>
+          <t>('0:00:06.940000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+          <t>('0:00:26.160000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
